--- a/branches/EpisodeOfCare.ManagingOrganization--FIG-73/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/EpisodeOfCare.ManagingOrganization--FIG-73/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:30:18+00:00</t>
+    <t>2023-03-02T13:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
